--- a/planning/User_journeys.xlsx
+++ b/planning/User_journeys.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t xml:space="preserve">Duplicate this sheet for each new journey</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">User fills in form and hits the submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the new transaction takes the users balance below a certain level a warning should be diplayed</t>
   </si>
   <si>
     <t xml:space="preserve">Render form for transaction creation</t>
@@ -782,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,7 +869,9 @@
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -884,10 +889,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
